--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.98241433333334</v>
+        <v>51.22717533333333</v>
       </c>
       <c r="H2">
-        <v>173.947243</v>
+        <v>153.681526</v>
       </c>
       <c r="I2">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477903</v>
       </c>
       <c r="J2">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477904</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3224113333333333</v>
+        <v>0.041903</v>
       </c>
       <c r="N2">
-        <v>0.967234</v>
+        <v>0.125709</v>
       </c>
       <c r="O2">
-        <v>0.4436436023218001</v>
+        <v>0.4909721489917629</v>
       </c>
       <c r="P2">
-        <v>0.4436436023218001</v>
+        <v>0.4909721489917631</v>
       </c>
       <c r="Q2">
-        <v>18.69418751509578</v>
+        <v>2.146572327992666</v>
       </c>
       <c r="R2">
-        <v>168.247687635862</v>
+        <v>19.319150951934</v>
       </c>
       <c r="S2">
-        <v>0.06980955828097883</v>
+        <v>0.08694162350410627</v>
       </c>
       <c r="T2">
-        <v>0.06980955828097883</v>
+        <v>0.08694162350410629</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.98241433333334</v>
+        <v>51.22717533333333</v>
       </c>
       <c r="H3">
-        <v>173.947243</v>
+        <v>153.681526</v>
       </c>
       <c r="I3">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477903</v>
       </c>
       <c r="J3">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477904</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.1073546666666667</v>
+        <v>0.008267000000000002</v>
       </c>
       <c r="N3">
-        <v>0.322064</v>
+        <v>0.024801</v>
       </c>
       <c r="O3">
-        <v>0.1477218885380045</v>
+        <v>0.09686339297221931</v>
       </c>
       <c r="P3">
-        <v>0.1477218885380045</v>
+        <v>0.09686339297221933</v>
       </c>
       <c r="Q3">
-        <v>6.224682763283556</v>
+        <v>0.4234950584806667</v>
       </c>
       <c r="R3">
-        <v>56.02214486955201</v>
+        <v>3.811455526326</v>
       </c>
       <c r="S3">
-        <v>0.02324478417653346</v>
+        <v>0.01715262395314051</v>
       </c>
       <c r="T3">
-        <v>0.02324478417653346</v>
+        <v>0.01715262395314051</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.98241433333334</v>
+        <v>51.22717533333333</v>
       </c>
       <c r="H4">
-        <v>173.947243</v>
+        <v>153.681526</v>
       </c>
       <c r="I4">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477903</v>
       </c>
       <c r="J4">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477904</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1585603333333333</v>
+        <v>0.035177</v>
       </c>
       <c r="N4">
-        <v>0.475681</v>
+        <v>0.105531</v>
       </c>
       <c r="O4">
-        <v>0.2181817764843215</v>
+        <v>0.4121644580360176</v>
       </c>
       <c r="P4">
-        <v>0.2181817764843214</v>
+        <v>0.4121644580360177</v>
       </c>
       <c r="Q4">
-        <v>9.193710944164778</v>
+        <v>1.802018346700667</v>
       </c>
       <c r="R4">
-        <v>82.743398497483</v>
+        <v>16.218165120306</v>
       </c>
       <c r="S4">
-        <v>0.0343320028996647</v>
+        <v>0.07298631339054355</v>
       </c>
       <c r="T4">
-        <v>0.0343320028996647</v>
+        <v>0.07298631339054357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.98241433333334</v>
+        <v>77.026568</v>
       </c>
       <c r="H5">
-        <v>173.947243</v>
+        <v>231.079704</v>
       </c>
       <c r="I5">
-        <v>0.1573550433628072</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="J5">
-        <v>0.1573550433628072</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1384086666666667</v>
+        <v>0.041903</v>
       </c>
       <c r="N5">
-        <v>0.415226</v>
+        <v>0.125709</v>
       </c>
       <c r="O5">
-        <v>0.1904527326558741</v>
+        <v>0.4909721489917629</v>
       </c>
       <c r="P5">
-        <v>0.1904527326558741</v>
+        <v>0.4909721489917631</v>
       </c>
       <c r="Q5">
-        <v>8.025268657990889</v>
+        <v>3.227644278904</v>
       </c>
       <c r="R5">
-        <v>72.227417921918</v>
+        <v>29.048798510136</v>
       </c>
       <c r="S5">
-        <v>0.02996869800563019</v>
+        <v>0.1307277793728331</v>
       </c>
       <c r="T5">
-        <v>0.02996869800563019</v>
+        <v>0.1307277793728332</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>231.079704</v>
       </c>
       <c r="I6">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="J6">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3224113333333333</v>
+        <v>0.008267000000000002</v>
       </c>
       <c r="N6">
-        <v>0.967234</v>
+        <v>0.024801</v>
       </c>
       <c r="O6">
-        <v>0.4436436023218001</v>
+        <v>0.09686339297221931</v>
       </c>
       <c r="P6">
-        <v>0.4436436023218001</v>
+        <v>0.09686339297221933</v>
       </c>
       <c r="Q6">
-        <v>24.83423849097067</v>
+        <v>0.6367786376560001</v>
       </c>
       <c r="R6">
-        <v>223.508146418736</v>
+        <v>5.731007738904001</v>
       </c>
       <c r="S6">
-        <v>0.09273830263546824</v>
+        <v>0.02579114984786798</v>
       </c>
       <c r="T6">
-        <v>0.09273830263546824</v>
+        <v>0.02579114984786799</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>231.079704</v>
       </c>
       <c r="I7">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="J7">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1073546666666667</v>
+        <v>0.035177</v>
       </c>
       <c r="N7">
-        <v>0.322064</v>
+        <v>0.105531</v>
       </c>
       <c r="O7">
-        <v>0.1477218885380045</v>
+        <v>0.4121644580360176</v>
       </c>
       <c r="P7">
-        <v>0.1477218885380045</v>
+        <v>0.4121644580360177</v>
       </c>
       <c r="Q7">
-        <v>8.269161532117334</v>
+        <v>2.709563582536</v>
       </c>
       <c r="R7">
-        <v>74.42245378905601</v>
+        <v>24.386072242824</v>
       </c>
       <c r="S7">
-        <v>0.03087946525865452</v>
+        <v>0.1097441971934743</v>
       </c>
       <c r="T7">
-        <v>0.03087946525865452</v>
+        <v>0.1097441971934743</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>77.026568</v>
+        <v>72.76991766666667</v>
       </c>
       <c r="H8">
-        <v>231.079704</v>
+        <v>218.309753</v>
       </c>
       <c r="I8">
-        <v>0.2090378451309208</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="J8">
-        <v>0.2090378451309208</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1585603333333333</v>
+        <v>0.041903</v>
       </c>
       <c r="N8">
-        <v>0.475681</v>
+        <v>0.125709</v>
       </c>
       <c r="O8">
-        <v>0.2181817764843215</v>
+        <v>0.4909721489917629</v>
       </c>
       <c r="P8">
-        <v>0.2181817764843214</v>
+        <v>0.4909721489917631</v>
       </c>
       <c r="Q8">
-        <v>12.21335829760267</v>
+        <v>3.049277859986333</v>
       </c>
       <c r="R8">
-        <v>109.920224678424</v>
+        <v>27.443500739877</v>
       </c>
       <c r="S8">
-        <v>0.04560824840311876</v>
+        <v>0.123503487026804</v>
       </c>
       <c r="T8">
-        <v>0.04560824840311875</v>
+        <v>0.123503487026804</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>77.026568</v>
+        <v>72.76991766666667</v>
       </c>
       <c r="H9">
-        <v>231.079704</v>
+        <v>218.309753</v>
       </c>
       <c r="I9">
-        <v>0.2090378451309208</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="J9">
-        <v>0.2090378451309208</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1384086666666667</v>
+        <v>0.008267000000000002</v>
       </c>
       <c r="N9">
-        <v>0.415226</v>
+        <v>0.024801</v>
       </c>
       <c r="O9">
-        <v>0.1904527326558741</v>
+        <v>0.09686339297221931</v>
       </c>
       <c r="P9">
-        <v>0.1904527326558741</v>
+        <v>0.09686339297221933</v>
       </c>
       <c r="Q9">
-        <v>10.66114457478933</v>
+        <v>0.6015889093503335</v>
       </c>
       <c r="R9">
-        <v>95.95030117310399</v>
+        <v>5.414300184153001</v>
       </c>
       <c r="S9">
-        <v>0.03981182883367927</v>
+        <v>0.02436587660192799</v>
       </c>
       <c r="T9">
-        <v>0.03981182883367927</v>
+        <v>0.024365876601928</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>103.359665</v>
+        <v>72.76991766666667</v>
       </c>
       <c r="H10">
-        <v>310.078995</v>
+        <v>218.309753</v>
       </c>
       <c r="I10">
-        <v>0.2805016789149148</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="J10">
-        <v>0.2805016789149148</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3224113333333333</v>
+        <v>0.035177</v>
       </c>
       <c r="N10">
-        <v>0.967234</v>
+        <v>0.105531</v>
       </c>
       <c r="O10">
-        <v>0.4436436023218001</v>
+        <v>0.4121644580360176</v>
       </c>
       <c r="P10">
-        <v>0.4436436023218001</v>
+        <v>0.4121644580360177</v>
       </c>
       <c r="Q10">
-        <v>33.32432740553667</v>
+        <v>2.559827393760334</v>
       </c>
       <c r="R10">
-        <v>299.91894664983</v>
+        <v>23.038446543843</v>
       </c>
       <c r="S10">
-        <v>0.1244427752911257</v>
+        <v>0.1036795017813017</v>
       </c>
       <c r="T10">
-        <v>0.1244427752911257</v>
+        <v>0.1036795017813017</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,51 +1098,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>103.359665</v>
+        <v>32.02005133333333</v>
       </c>
       <c r="H11">
-        <v>310.078995</v>
+        <v>96.06015400000001</v>
       </c>
       <c r="I11">
-        <v>0.2805016789149148</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="J11">
-        <v>0.2805016789149148</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.1073546666666667</v>
+        <v>0.041903</v>
       </c>
       <c r="N11">
-        <v>0.322064</v>
+        <v>0.125709</v>
       </c>
       <c r="O11">
-        <v>0.1477218885380045</v>
+        <v>0.4909721489917629</v>
       </c>
       <c r="P11">
-        <v>0.1477218885380045</v>
+        <v>0.4909721489917631</v>
       </c>
       <c r="Q11">
-        <v>11.09614238285333</v>
+        <v>1.341736211020667</v>
       </c>
       <c r="R11">
-        <v>99.86528144568001</v>
+        <v>12.075625899186</v>
       </c>
       <c r="S11">
-        <v>0.04143623774739217</v>
+        <v>0.05434371951001104</v>
       </c>
       <c r="T11">
-        <v>0.04143623774739217</v>
+        <v>0.05434371951001106</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>103.359665</v>
+        <v>32.02005133333333</v>
       </c>
       <c r="H12">
-        <v>310.078995</v>
+        <v>96.06015400000001</v>
       </c>
       <c r="I12">
-        <v>0.2805016789149148</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="J12">
-        <v>0.2805016789149148</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,33 +1178,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1585603333333333</v>
+        <v>0.008267000000000002</v>
       </c>
       <c r="N12">
-        <v>0.475681</v>
+        <v>0.024801</v>
       </c>
       <c r="O12">
-        <v>0.2181817764843215</v>
+        <v>0.09686339297221931</v>
       </c>
       <c r="P12">
-        <v>0.2181817764843214</v>
+        <v>0.09686339297221933</v>
       </c>
       <c r="Q12">
-        <v>16.38874293562167</v>
+        <v>0.2647097643726667</v>
       </c>
       <c r="R12">
-        <v>147.498686420595</v>
+        <v>2.382387879354001</v>
       </c>
       <c r="S12">
-        <v>0.06120035461249086</v>
+        <v>0.01072141682431476</v>
       </c>
       <c r="T12">
-        <v>0.06120035461249084</v>
+        <v>0.01072141682431476</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>103.359665</v>
+        <v>32.02005133333333</v>
       </c>
       <c r="H13">
-        <v>310.078995</v>
+        <v>96.06015400000001</v>
       </c>
       <c r="I13">
-        <v>0.2805016789149148</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="J13">
-        <v>0.2805016789149148</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.1384086666666667</v>
+        <v>0.035177</v>
       </c>
       <c r="N13">
-        <v>0.415226</v>
+        <v>0.105531</v>
       </c>
       <c r="O13">
-        <v>0.1904527326558741</v>
+        <v>0.4121644580360176</v>
       </c>
       <c r="P13">
-        <v>0.1904527326558741</v>
+        <v>0.4121644580360177</v>
       </c>
       <c r="Q13">
-        <v>14.30587341976333</v>
+        <v>1.126369345752667</v>
       </c>
       <c r="R13">
-        <v>128.75286077787</v>
+        <v>10.137324111774</v>
       </c>
       <c r="S13">
-        <v>0.05342231126390612</v>
+        <v>0.04562081524481919</v>
       </c>
       <c r="T13">
-        <v>0.05342231126390611</v>
+        <v>0.0456208152448192</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,51 +1284,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>38.06883066666667</v>
+        <v>56.24368933333333</v>
       </c>
       <c r="H14">
-        <v>114.206492</v>
+        <v>168.731068</v>
       </c>
       <c r="I14">
-        <v>0.1033127469630208</v>
+        <v>0.1944214957488556</v>
       </c>
       <c r="J14">
-        <v>0.1033127469630208</v>
+        <v>0.1944214957488557</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.3224113333333333</v>
+        <v>0.041903</v>
       </c>
       <c r="N14">
-        <v>0.967234</v>
+        <v>0.125709</v>
       </c>
       <c r="O14">
-        <v>0.4436436023218001</v>
+        <v>0.4909721489917629</v>
       </c>
       <c r="P14">
-        <v>0.4436436023218001</v>
+        <v>0.4909721489917631</v>
       </c>
       <c r="Q14">
-        <v>12.27382245368089</v>
+        <v>2.356779314134666</v>
       </c>
       <c r="R14">
-        <v>110.464402083128</v>
+        <v>21.211013827212</v>
       </c>
       <c r="S14">
-        <v>0.04583403922843515</v>
+        <v>0.09545553957800856</v>
       </c>
       <c r="T14">
-        <v>0.04583403922843515</v>
+        <v>0.09545553957800859</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>38.06883066666667</v>
+        <v>56.24368933333333</v>
       </c>
       <c r="H15">
-        <v>114.206492</v>
+        <v>168.731068</v>
       </c>
       <c r="I15">
-        <v>0.1033127469630208</v>
+        <v>0.1944214957488556</v>
       </c>
       <c r="J15">
-        <v>0.1033127469630208</v>
+        <v>0.1944214957488557</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,33 +1364,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.1073546666666667</v>
+        <v>0.008267000000000002</v>
       </c>
       <c r="N15">
-        <v>0.322064</v>
+        <v>0.024801</v>
       </c>
       <c r="O15">
-        <v>0.1477218885380045</v>
+        <v>0.09686339297221931</v>
       </c>
       <c r="P15">
-        <v>0.1477218885380045</v>
+        <v>0.09686339297221933</v>
       </c>
       <c r="Q15">
-        <v>4.086866626609778</v>
+        <v>0.4649665797186667</v>
       </c>
       <c r="R15">
-        <v>36.78179963948801</v>
+        <v>4.184699217468</v>
       </c>
       <c r="S15">
-        <v>0.01526155409142642</v>
+        <v>0.01883232574496807</v>
       </c>
       <c r="T15">
-        <v>0.01526155409142642</v>
+        <v>0.01883232574496808</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,356 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>38.06883066666667</v>
+        <v>56.24368933333333</v>
       </c>
       <c r="H16">
-        <v>114.206492</v>
+        <v>168.731068</v>
       </c>
       <c r="I16">
-        <v>0.1033127469630208</v>
+        <v>0.1944214957488556</v>
       </c>
       <c r="J16">
-        <v>0.1033127469630208</v>
+        <v>0.1944214957488557</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1585603333333333</v>
+        <v>0.035177</v>
       </c>
       <c r="N16">
-        <v>0.475681</v>
+        <v>0.105531</v>
       </c>
       <c r="O16">
-        <v>0.2181817764843215</v>
+        <v>0.4121644580360176</v>
       </c>
       <c r="P16">
-        <v>0.2181817764843214</v>
+        <v>0.4121644580360177</v>
       </c>
       <c r="Q16">
-        <v>6.036206480116889</v>
+        <v>1.978484259678666</v>
       </c>
       <c r="R16">
-        <v>54.325858321052</v>
+        <v>17.806358337108</v>
       </c>
       <c r="S16">
-        <v>0.02254095866586707</v>
+        <v>0.080133630425879</v>
       </c>
       <c r="T16">
-        <v>0.02254095866586706</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>38.06883066666667</v>
-      </c>
-      <c r="H17">
-        <v>114.206492</v>
-      </c>
-      <c r="I17">
-        <v>0.1033127469630208</v>
-      </c>
-      <c r="J17">
-        <v>0.1033127469630208</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.1384086666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.415226</v>
-      </c>
-      <c r="O17">
-        <v>0.1904527326558741</v>
-      </c>
-      <c r="P17">
-        <v>0.1904527326558741</v>
-      </c>
-      <c r="Q17">
-        <v>5.269056094132444</v>
-      </c>
-      <c r="R17">
-        <v>47.421504847192</v>
-      </c>
-      <c r="S17">
-        <v>0.01967619497729217</v>
-      </c>
-      <c r="T17">
-        <v>0.01967619497729217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>92.04397066666667</v>
-      </c>
-      <c r="H18">
-        <v>276.131912</v>
-      </c>
-      <c r="I18">
-        <v>0.2497926856283365</v>
-      </c>
-      <c r="J18">
-        <v>0.2497926856283365</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.3224113333333333</v>
-      </c>
-      <c r="N18">
-        <v>0.967234</v>
-      </c>
-      <c r="O18">
-        <v>0.4436436023218001</v>
-      </c>
-      <c r="P18">
-        <v>0.4436436023218001</v>
-      </c>
-      <c r="Q18">
-        <v>29.67601930793422</v>
-      </c>
-      <c r="R18">
-        <v>267.084173771408</v>
-      </c>
-      <c r="S18">
-        <v>0.1108189268857921</v>
-      </c>
-      <c r="T18">
-        <v>0.1108189268857921</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>92.04397066666667</v>
-      </c>
-      <c r="H19">
-        <v>276.131912</v>
-      </c>
-      <c r="I19">
-        <v>0.2497926856283365</v>
-      </c>
-      <c r="J19">
-        <v>0.2497926856283365</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.1073546666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.322064</v>
-      </c>
-      <c r="O19">
-        <v>0.1477218885380045</v>
-      </c>
-      <c r="P19">
-        <v>0.1477218885380045</v>
-      </c>
-      <c r="Q19">
-        <v>9.881349789596445</v>
-      </c>
-      <c r="R19">
-        <v>88.932148106368</v>
-      </c>
-      <c r="S19">
-        <v>0.03689984726399791</v>
-      </c>
-      <c r="T19">
-        <v>0.03689984726399791</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>92.04397066666667</v>
-      </c>
-      <c r="H20">
-        <v>276.131912</v>
-      </c>
-      <c r="I20">
-        <v>0.2497926856283365</v>
-      </c>
-      <c r="J20">
-        <v>0.2497926856283365</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>0.1585603333333333</v>
-      </c>
-      <c r="N20">
-        <v>0.475681</v>
-      </c>
-      <c r="O20">
-        <v>0.2181817764843215</v>
-      </c>
-      <c r="P20">
-        <v>0.2181817764843214</v>
-      </c>
-      <c r="Q20">
-        <v>14.59452267023022</v>
-      </c>
-      <c r="R20">
-        <v>131.350704032072</v>
-      </c>
-      <c r="S20">
-        <v>0.05450021190318009</v>
-      </c>
-      <c r="T20">
-        <v>0.05450021190318007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>92.04397066666667</v>
-      </c>
-      <c r="H21">
-        <v>276.131912</v>
-      </c>
-      <c r="I21">
-        <v>0.2497926856283365</v>
-      </c>
-      <c r="J21">
-        <v>0.2497926856283365</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.1384086666666667</v>
-      </c>
-      <c r="N21">
-        <v>0.415226</v>
-      </c>
-      <c r="O21">
-        <v>0.1904527326558741</v>
-      </c>
-      <c r="P21">
-        <v>0.1904527326558741</v>
-      </c>
-      <c r="Q21">
-        <v>12.73968325467911</v>
-      </c>
-      <c r="R21">
-        <v>114.657149292112</v>
-      </c>
-      <c r="S21">
-        <v>0.04757369957536637</v>
-      </c>
-      <c r="T21">
-        <v>0.04757369957536636</v>
+        <v>0.08013363042587902</v>
       </c>
     </row>
   </sheetData>
